--- a/会计/Partnership Account (1) - Financial Statement/Practice 4.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/Practice 4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB8626-D2C3-9843-8220-D7AEC24E8572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E257DB9-1C32-0D40-ABED-1BCA643F1186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B019E671-0C37-4A47-9CDD-34A5CD31383C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="General Ledger" sheetId="1" r:id="rId1"/>
+    <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>In the books of partnership</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>- Tan</t>
+  </si>
+  <si>
+    <t>Loan from Partners</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -461,11 +464,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,43 +576,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,10 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4C2BDD-96B3-7A4F-A4A5-EC36F61A6DD1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,46 +952,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1030,7 +1048,7 @@
         <v>37073</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>11</v>
@@ -1158,18 +1176,18 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1294,11 +1312,15 @@
       <c r="G18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17">
+      <c r="H18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="32">
         <v>1000</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -1314,15 +1336,15 @@
       <c r="E19" s="18">
         <v>270</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="35">
         <v>31</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -1345,11 +1367,15 @@
       <c r="G20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17">
+      <c r="H20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="32">
         <v>2000</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
@@ -1423,7 +1449,7 @@
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="16"/>
@@ -1533,7 +1559,9 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="D20 I23 D23" formula="1"/>
   </ignoredErrors>
@@ -1542,10 +1570,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A137DC-920F-1B49-8AE6-1BD8990DED36}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,53 +1586,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
         <v>98050</v>
       </c>
     </row>
@@ -1609,47 +1640,47 @@
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37">
         <v>900</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37">
         <v>300</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39">
         <v>270</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <f>SUM(C8:C10)</f>
         <v>1470</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37">
         <f>D6+D10</f>
         <v>99520</v>
       </c>
@@ -1658,445 +1689,445 @@
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="43"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37">
+        <v>24000</v>
+      </c>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="37">
         <v>4500</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="37">
         <v>4000</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="39">
         <v>6000</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="39">
         <f>SUM(B16:B18)</f>
         <v>14500</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="39">
         <f>-C14-C18</f>
-        <v>-16500</v>
+        <v>-38500</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="46">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="40">
         <f>D11+D18</f>
-        <v>83020</v>
+        <v>61020</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37">
         <v>30510</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37">
         <v>12204</v>
       </c>
-      <c r="D22" s="43"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43">
+      <c r="B23" s="37"/>
+      <c r="C23" s="39">
         <v>18306</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="47">
         <f>SUM(C21:C23)</f>
         <v>61020</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
     </row>
     <row r="61" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
     </row>
     <row r="62" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
     </row>
     <row r="71" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
     </row>
     <row r="72" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
     </row>
     <row r="73" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
     </row>
     <row r="80" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
     </row>
     <row r="81" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
     </row>
     <row r="82" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
     </row>
     <row r="86" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
     </row>
     <row r="88" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2105,6 +2136,8 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>